--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2013947.307859168</v>
+        <v>-2020958.036975163</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>71.86954418429279</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>264.4697439763113</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,25 +738,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>68.76350334276003</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>49.79276043694368</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>68.54822292241961</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>114.7398479781407</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>160.8542999853983</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>239.37664224415</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -981,7 +981,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>73.09177164960535</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>197.9802338760533</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2.985676702963014</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>175.3478264080953</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>73.9437146907068</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>226.8653251659286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>32.94336711689881</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>77.41049960011151</v>
       </c>
       <c r="G11" t="n">
-        <v>40.1390509743899</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
@@ -1430,10 +1430,10 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1528,13 +1528,13 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>40.78297506860741</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>130.3372854450005</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>117.8545206798372</v>
+        <v>66.92836261523581</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
@@ -1667,7 +1667,7 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G16" t="n">
-        <v>40.78297506860786</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>197.6817192875501</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422876658</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658109</v>
+        <v>236.9290753658107</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380504</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596444</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325497</v>
@@ -2068,7 +2068,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
         <v>278.6711586412924</v>
@@ -2099,7 +2099,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380504</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596444</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325497</v>
@@ -2305,7 +2305,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277697</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658109</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253649</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815729</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.945574312612</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838891</v>
+        <v>24.17382596574981</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828903</v>
+        <v>52.06849973564994</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431736</v>
+        <v>70.57601873167826</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459977</v>
+        <v>55.72314698196067</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643949</v>
+        <v>41.29686219380039</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193186</v>
+        <v>41.2233042466795</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908587</v>
+        <v>42.97275566644677</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147801</v>
+        <v>53.79159358883891</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805005</v>
+        <v>41.14384575541095</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922198</v>
+        <v>18.98356133658288</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736779</v>
+        <v>9.882059701038798</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920521</v>
+        <v>88.00800320656612</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
@@ -4195,13 +4195,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1042.167257230338</v>
+        <v>1120.102321012913</v>
       </c>
       <c r="C2" t="n">
-        <v>648.9917557332685</v>
+        <v>1120.102321012913</v>
       </c>
       <c r="D2" t="n">
-        <v>263.5506269499363</v>
+        <v>734.661192229581</v>
       </c>
       <c r="E2" t="n">
-        <v>263.5506269499363</v>
+        <v>734.661192229581</v>
       </c>
       <c r="F2" t="n">
-        <v>190.9551277738829</v>
+        <v>317.7667537595588</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022902</v>
+        <v>308.644402287966</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132839</v>
+        <v>74.88432743274666</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354884</v>
+        <v>588.4870060424347</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.71031657295</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465279</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596801</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.2694146788</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T2" t="n">
-        <v>1784.768812238216</v>
+        <v>1851.661735376338</v>
       </c>
       <c r="U2" t="n">
-        <v>1784.768812238216</v>
+        <v>1851.661735376338</v>
       </c>
       <c r="V2" t="n">
-        <v>1442.662002941735</v>
+        <v>1509.554926079857</v>
       </c>
       <c r="W2" t="n">
-        <v>1442.662002941735</v>
+        <v>1509.554926079857</v>
       </c>
       <c r="X2" t="n">
-        <v>1442.662002941735</v>
+        <v>1120.102321012913</v>
       </c>
       <c r="Y2" t="n">
-        <v>1442.662002941735</v>
+        <v>1120.102321012913</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021442</v>
+        <v>640.8277454683732</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622364</v>
+        <v>640.8277454683732</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837168</v>
+        <v>510.7387780898536</v>
       </c>
       <c r="E3" t="n">
-        <v>305.6121358991107</v>
+        <v>374.2922872007413</v>
       </c>
       <c r="F3" t="n">
-        <v>181.1803297822425</v>
+        <v>249.8604810838731</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H3" t="n">
-        <v>92.8829133828434</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="L3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="M3" t="n">
-        <v>581.7544444048478</v>
+        <v>407.9705203262574</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.27622687548</v>
+        <v>921.5731989359455</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466461</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>2000.949577101911</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734591</v>
+        <v>1823.96576530082</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413233</v>
+        <v>1613.902621979462</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.3482927843</v>
+        <v>1391.362620350529</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917587</v>
+        <v>1161.245374483816</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675983</v>
+        <v>971.9382968338273</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431056</v>
+        <v>792.6240799093346</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475499</v>
+        <v>367.2671768311467</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475499</v>
+        <v>197.0620588971359</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475499</v>
+        <v>197.0620588971359</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>382.5065569196679</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>382.5065569196679</v>
+        <v>873.7096400833257</v>
       </c>
       <c r="V4" t="n">
-        <v>382.5065569196679</v>
+        <v>873.7096400833257</v>
       </c>
       <c r="W4" t="n">
-        <v>382.5065569196679</v>
+        <v>590.3792380145034</v>
       </c>
       <c r="X4" t="n">
-        <v>266.6077205781116</v>
+        <v>590.3792380145034</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475499</v>
+        <v>367.2671768311467</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>759.4637545949123</v>
+        <v>448.9207614408816</v>
       </c>
       <c r="C5" t="n">
-        <v>366.2882530978429</v>
+        <v>448.9207614408816</v>
       </c>
       <c r="D5" t="n">
-        <v>366.2882530978429</v>
+        <v>63.47963265754939</v>
       </c>
       <c r="E5" t="n">
-        <v>366.2882530978429</v>
+        <v>63.47963265754939</v>
       </c>
       <c r="F5" t="n">
-        <v>353.4342186682247</v>
+        <v>50.62559822793121</v>
       </c>
       <c r="G5" t="n">
-        <v>344.3118671966319</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K5" t="n">
-        <v>135.6402479253956</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="L5" t="n">
-        <v>135.6402479253956</v>
+        <v>74.88432743274666</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354884</v>
+        <v>588.4870060424347</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.71031657295</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465279</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596801</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023271</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964322</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523738</v>
+        <v>1851.661735376338</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958337</v>
+        <v>1851.661735376338</v>
       </c>
       <c r="V5" t="n">
-        <v>1148.916359661855</v>
+        <v>1609.867147250934</v>
       </c>
       <c r="W5" t="n">
-        <v>1148.916359661855</v>
+        <v>1238.868112219222</v>
       </c>
       <c r="X5" t="n">
-        <v>759.4637545949123</v>
+        <v>849.4155071522785</v>
       </c>
       <c r="Y5" t="n">
-        <v>759.4637545949123</v>
+        <v>849.4155071522785</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021442</v>
+        <v>578.7527533920138</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622364</v>
+        <v>428.098522952106</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837168</v>
+        <v>298.0095555735863</v>
       </c>
       <c r="E6" t="n">
-        <v>301.240147710378</v>
+        <v>161.563064684474</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>161.563064684474</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H6" t="n">
-        <v>92.8829133828434</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="L6" t="n">
-        <v>480.0174418653872</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653872</v>
+        <v>407.9705203262574</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.27622687548</v>
+        <v>921.5731989359455</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466461</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413233</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.3482927843</v>
+        <v>1329.287628274169</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917587</v>
+        <v>1099.170382407456</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675983</v>
+        <v>909.8633047574679</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431056</v>
+        <v>730.5490878329751</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475499</v>
+        <v>197.0620588971359</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475499</v>
+        <v>197.0620588971359</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475499</v>
+        <v>197.0620588971359</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>818.0258575153864</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>532.5870657572874</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="V7" t="n">
-        <v>266.6077205781116</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="W7" t="n">
-        <v>266.6077205781116</v>
+        <v>374.1810754709696</v>
       </c>
       <c r="X7" t="n">
-        <v>266.6077205781116</v>
+        <v>374.1810754709696</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475499</v>
+        <v>197.0620588971359</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>611.6668769506938</v>
+        <v>1997.212240897597</v>
       </c>
       <c r="C8" t="n">
-        <v>611.6668769506938</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="D8" t="n">
-        <v>611.6668769506938</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E8" t="n">
-        <v>611.6668769506938</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4808,13 +4808,13 @@
         <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O8" t="n">
         <v>1832.61545280471</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2199.134950018231</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>1943.38222045283</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="V8" t="n">
-        <v>1601.275411156348</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="W8" t="n">
-        <v>1230.276376124636</v>
+        <v>1997.212240897597</v>
       </c>
       <c r="X8" t="n">
-        <v>840.8237710576924</v>
+        <v>1997.212240897597</v>
       </c>
       <c r="Y8" t="n">
-        <v>611.6668769506938</v>
+        <v>1997.212240897597</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="M9" t="n">
         <v>623.6437572083089</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>80.58909850245149</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>80.58909850245149</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>80.58909850245149</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>80.58909850245149</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>80.58909850245149</v>
       </c>
       <c r="G10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>589.1399514439072</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>303.7011596858081</v>
       </c>
       <c r="V10" t="n">
-        <v>100.8850758683575</v>
+        <v>303.7011596858081</v>
       </c>
       <c r="W10" t="n">
-        <v>100.8850758683575</v>
+        <v>303.7011596858081</v>
       </c>
       <c r="X10" t="n">
-        <v>100.8850758683575</v>
+        <v>303.7011596858081</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.8850758683575</v>
+        <v>80.58909850245149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1135.01579512446</v>
+        <v>1452.672125045209</v>
       </c>
       <c r="C11" t="n">
-        <v>813.636568773584</v>
+        <v>1131.292898694334</v>
       </c>
       <c r="D11" t="n">
-        <v>499.9917151364456</v>
+        <v>1131.292898694334</v>
       </c>
       <c r="E11" t="n">
-        <v>169.204465399184</v>
+        <v>800.5056489570717</v>
       </c>
       <c r="F11" t="n">
-        <v>169.204465399184</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654568</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
         <v>128.6599694654568</v>
@@ -5078,13 +5078,13 @@
         <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543617</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="X11" t="n">
-        <v>1788.408699622868</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="Y11" t="n">
-        <v>1463.714265689663</v>
+        <v>1781.370595610412</v>
       </c>
     </row>
     <row r="12">
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.3140520158404</v>
+        <v>328.1273454378273</v>
       </c>
       <c r="C13" t="n">
-        <v>62.11912770411553</v>
+        <v>229.7185026500105</v>
       </c>
       <c r="D13" t="n">
-        <v>62.11912770411553</v>
+        <v>145.8816646987191</v>
       </c>
       <c r="E13" t="n">
         <v>62.11912770411553</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236449</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245441</v>
+        <v>936.0428256245447</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915621</v>
+        <v>936.0428256245447</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689336</v>
+        <v>724.5086987019162</v>
       </c>
       <c r="X13" t="n">
-        <v>368.0415815981106</v>
+        <v>592.8548750200974</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.7257955609478</v>
+        <v>441.5390889829347</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>1135.01579512446</v>
       </c>
       <c r="C14" t="n">
-        <v>813.636568773584</v>
+        <v>1135.01579512446</v>
       </c>
       <c r="D14" t="n">
-        <v>499.9917151364457</v>
+        <v>1135.01579512446</v>
       </c>
       <c r="E14" t="n">
-        <v>380.9467447527723</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>380.9467447527723</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527723</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5364,10 +5364,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.3140520158406</v>
+        <v>411.7059410452041</v>
       </c>
       <c r="C16" t="n">
-        <v>103.3140520158406</v>
+        <v>411.7059410452041</v>
       </c>
       <c r="D16" t="n">
-        <v>103.3140520158406</v>
+        <v>327.8691030939128</v>
       </c>
       <c r="E16" t="n">
-        <v>103.3140520158406</v>
+        <v>244.1065660993092</v>
       </c>
       <c r="F16" t="n">
-        <v>103.3140520158406</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G16" t="n">
         <v>62.11912770411553</v>
@@ -5434,19 +5434,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1332.809865128936</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245443</v>
+        <v>1119.16734851703</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915624</v>
+        <v>924.9842784840486</v>
       </c>
       <c r="W16" t="n">
-        <v>530.3256286689339</v>
+        <v>725.3057741531899</v>
       </c>
       <c r="X16" t="n">
-        <v>368.0415815981108</v>
+        <v>563.0217270823669</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.7257955609481</v>
+        <v>411.7059410452041</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975459</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099322</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803439</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924347</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5598,7 +5598,7 @@
         <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>568.1699486069232</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M18" t="n">
         <v>568.1699486069232</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,46 +5677,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P19" t="n">
-        <v>960.1439538756169</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974515</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975446</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924214</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5783,19 +5783,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5917,43 +5917,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214671</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498046</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974515</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975448</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803429</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,22 +6014,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188066</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573993</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6069,22 +6069,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L24" t="n">
-        <v>494.9732559860694</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462908</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162811</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918796</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424151</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.22278621427</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718126</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218591</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390258</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755023</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
         <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647881</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508976</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379498</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377511</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164849</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420325</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.56169864057</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755023</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755023</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755023</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>73.36485894755023</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985349</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414155</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878064</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879677</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746016</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
         <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755023</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796857</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192009</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.707882522574</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904114</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6424,10 +6424,10 @@
         <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026478</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1342.204025341951</v>
       </c>
       <c r="M29" t="n">
-        <v>1888.204925386532</v>
+        <v>1981.256287116105</v>
       </c>
       <c r="N29" t="n">
-        <v>2509.067570753567</v>
+        <v>2602.118932483141</v>
       </c>
       <c r="O29" t="n">
         <v>3042.158533375469</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3483.397387236565</v>
       </c>
       <c r="Q29" t="n">
         <v>3668.242947377513</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>218.9633184712348</v>
       </c>
       <c r="L30" t="n">
-        <v>73.36485894755026</v>
+        <v>702.529404369548</v>
       </c>
       <c r="M30" t="n">
-        <v>579.4156798503576</v>
+        <v>1330.301053996229</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6661,10 +6661,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835499</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234509</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>323.8570290861561</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041217</v>
+        <v>794.4915056886009</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1287.81179740713</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2361.623981089173</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2844.723727844784</v>
       </c>
       <c r="P32" t="n">
-        <v>3139.085431055613</v>
+        <v>3192.911219976306</v>
       </c>
       <c r="Q32" t="n">
-        <v>3429.204083923632</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234509</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076164</v>
+        <v>102.254681251447</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076164</v>
+        <v>102.254681251447</v>
       </c>
       <c r="L33" t="n">
-        <v>69.54754824076164</v>
+        <v>585.8207671497603</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>1213.592416776441</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1869.370387987</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996513</v>
+        <v>365.6713676929714</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918668</v>
+        <v>309.3853606404859</v>
       </c>
       <c r="D34" t="n">
-        <v>302.206510823746</v>
+        <v>267.6713584245259</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123131</v>
+        <v>226.0316571652537</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546506</v>
+        <v>182.6248332597519</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407227</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431919</v>
+        <v>86.73045008374194</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234509</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076164</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>231.2685546898324</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805523</v>
+        <v>501.1958531658792</v>
       </c>
       <c r="M34" t="n">
-        <v>595.8284816188163</v>
+        <v>687.4874315041432</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770957</v>
+        <v>982.3291861103353</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145874</v>
+        <v>1256.686073727026</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649523</v>
+        <v>1376.562239503605</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250181</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439552</v>
+        <v>835.7257283273676</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000942</v>
+        <v>666.3144371400705</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124418</v>
+        <v>546.1532258045788</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584497</v>
+        <v>436.9602755027474</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,10 +6971,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7014,22 +7014,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7108,13 +7108,13 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>967.282790386233</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7254,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>378.9738643893075</v>
       </c>
       <c r="L39" t="n">
-        <v>62.11912770411553</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222406</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960404</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>499.9530296343044</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655136</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
         <v>1094.779966106229</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,19 +7436,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7488,19 +7488,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7570,49 +7570,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222407</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655146</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072227</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7679,16 +7679,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7725,16 +7725,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7819,13 +7819,13 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7834,22 +7834,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7982,13 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>186.966433039995</v>
       </c>
       <c r="M2" t="n">
-        <v>288.1928110140955</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8064,13 +8064,13 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837492</v>
+        <v>462.5560852512503</v>
       </c>
       <c r="N3" t="n">
-        <v>526.3032062588458</v>
+        <v>604.162697308397</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8216,16 +8216,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>236.1337451293793</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>186.966433039995</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321646</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8298,16 +8298,16 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>530.9914402615973</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>462.5560852512503</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886039</v>
+        <v>604.162697308397</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8456,7 +8456,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,7 +8465,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>369.9375821741921</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
@@ -8538,7 +8538,7 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581658</v>
+        <v>674.5394322581657</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -9012,13 +9012,13 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>491.4748860273814</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9246,10 +9246,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>278.2539578070002</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>280.5807329993939</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
@@ -9477,19 +9477,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>115.0989755892052</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9717,25 +9717,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>166.3231752016895</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>668.5665922884425</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,22 +9951,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>603.549567405683</v>
+        <v>688.0608343844983</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10191,25 +10191,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>236.6660863673582</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>603.549567405683</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,16 +10425,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>117.4945034435373</v>
       </c>
       <c r="K33" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
@@ -10443,10 +10443,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,25 +10662,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>115.0989755892052</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10902,22 +10902,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>409.6522249143353</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11136,22 +11136,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>624.8237719316268</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>515.2544481366739</v>
       </c>
       <c r="M45" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>264.2366820904786</v>
       </c>
       <c r="G11" t="n">
-        <v>297.813764587755</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>56.64177929133133</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>30.32392115511425</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>209.6248565600517</v>
+        <v>260.5510146246529</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>54.71022589820912</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>11.73706636585209</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.260869692797281e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1115513.163970803</v>
+        <v>1115513.163970804</v>
       </c>
     </row>
     <row r="7">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062187</v>
+        <v>22558.42953401354</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668203</v>
+        <v>47425.32553668195</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728559</v>
+        <v>62456.24177539679</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277111</v>
+        <v>27767.69404277127</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243104</v>
+        <v>173918.2775005336</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243104</v>
+        <v>173918.2775005336</v>
       </c>
       <c r="D4" t="n">
-        <v>154346.0890704043</v>
+        <v>154346.0890704044</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373745</v>
+        <v>74084.4955237375</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373745</v>
+        <v>74084.49552373751</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153197</v>
@@ -26445,19 +26445,19 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
+        <v>121843.4120153196</v>
+      </c>
+      <c r="N4" t="n">
+        <v>121843.4120153196</v>
+      </c>
+      <c r="O4" t="n">
         <v>121843.4120153197</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>121843.4120153197</v>
-      </c>
-      <c r="O4" t="n">
-        <v>121843.4120153196</v>
-      </c>
-      <c r="P4" t="n">
-        <v>121843.4120153196</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,22 +26482,22 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391949</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315422</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-416095.3526561801</v>
+        <v>-412947.0020694059</v>
       </c>
       <c r="C6" t="n">
-        <v>-233890.4043643242</v>
+        <v>-239088.3450353508</v>
       </c>
       <c r="D6" t="n">
-        <v>-238753.6866581994</v>
+        <v>-246489.9758815911</v>
       </c>
       <c r="E6" t="n">
-        <v>-239393.0766976225</v>
+        <v>-239602.8082443122</v>
       </c>
       <c r="F6" t="n">
-        <v>-127270.515223578</v>
+        <v>-127480.2467702676</v>
       </c>
       <c r="G6" t="n">
-        <v>-227438.5068675214</v>
+        <v>-227438.5068675213</v>
       </c>
       <c r="H6" t="n">
-        <v>-180013.1813308394</v>
+        <v>-180013.1813308393</v>
       </c>
       <c r="I6" t="n">
-        <v>-180013.1813308393</v>
+        <v>-180013.1813308392</v>
       </c>
       <c r="J6" t="n">
-        <v>-393055.0989281247</v>
+        <v>-386538.8137735517</v>
       </c>
       <c r="K6" t="n">
         <v>-186252.9497336223</v>
       </c>
       <c r="L6" t="n">
-        <v>-241435.5386682436</v>
+        <v>-245484.3758787157</v>
       </c>
       <c r="M6" t="n">
-        <v>-222214.0107904623</v>
+        <v>-223265.7058016504</v>
       </c>
       <c r="N6" t="n">
         <v>-180013.1813308393</v>
       </c>
       <c r="O6" t="n">
-        <v>-207780.8753736104</v>
+        <v>-207780.8753736106</v>
       </c>
       <c r="P6" t="n">
         <v>-180013.1813308393</v>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443779</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095204</v>
+        <v>844.4391950293136</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085254</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346407</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660699</v>
+        <v>78.07030221924599</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155135</v>
+        <v>17.58004954287438</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346389</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773711</v>
+        <v>659.3622249971646</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407265</v>
+        <v>117.1268713042795</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085254</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346407</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>340.8559499010292</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>56.37247595286294</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27458,25 +27458,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>66.31852263746111</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>83.78860989218616</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>214.0361809180985</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>116.999671016706</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>159.9879199437759</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>99.30909895936679</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27701,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>61.9902543306158</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>22.33436773659031</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>230.3761846104852</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>45.53311416342777</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>293.3453299906886</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>165.6604768226763</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.3195537952425</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28023,7 +28023,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>133.6281462446501</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>5.636002634528353</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2979821082766</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155845</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -28989,43 +28989,43 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.636002634527626</v>
+        <v>5.636002634528545</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.359969315583</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29235,34 +29235,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>128.2979821082767</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>35.71049010668843</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155845</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901078</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901277</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431614</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29533,28 +29533,28 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
+        <v>86.65052755599572</v>
+      </c>
+      <c r="M29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="M29" t="n">
-        <v>86.65052755599584</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>37.61298457733328</v>
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>43.4950968315988</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>86.27291196566637</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>94.97643844045359</v>
+        <v>106.8683420224717</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30180,16 +30180,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>128.2979821082774</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30271,7 +30271,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
         <v>130.3599693155844</v>
@@ -30402,10 +30402,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
-        <v>5.636002634528452</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>35.71049010668801</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30642,22 +30642,22 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>5.636002634528637</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30894,13 +30894,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P46" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34702,13 +34702,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>33.71826330950326</v>
       </c>
       <c r="M2" t="n">
-        <v>138.4677594163683</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34784,13 +34784,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344373</v>
+        <v>370.1689632019384</v>
       </c>
       <c r="N3" t="n">
-        <v>440.9310934046791</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34936,16 +34936,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>93.07534195014198</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>33.71826330950326</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35018,16 +35018,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>440.9310934046791</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>370.1689632019384</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35176,7 +35176,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,7 +35185,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>220.3737447500957</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
@@ -35258,7 +35258,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088539</v>
+        <v>582.1523102088538</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>398.7873271384925</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,10 +35966,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>188.193610950082</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
@@ -36045,7 +36045,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565483</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>131.7547461184291</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835664</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>22.71185353989332</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,19 +36285,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.092766644680109</v>
+        <v>9.092766644681028</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>73.93605315237758</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>583.1944794342759</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>249.3850182462349</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>39.16725411684092</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835664</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
@@ -36604,19 +36604,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.7566830047971</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751656005</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>511.1624453563711</v>
+        <v>595.6737123351865</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215707</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36762,16 +36762,16 @@
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>584.9538525242067</v>
       </c>
       <c r="M29" t="n">
-        <v>638.1665882070873</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>147.0691510340248</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>511.1624453563711</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.890801498799</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318505</v>
+        <v>475.3883602044896</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>487.9795421773851</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>48.65992738833309</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>35.05004611020399</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
@@ -37163,10 +37163,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055094</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>260.7619332624736</v>
+        <v>272.6538368444917</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476688</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>277.1281693097889</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>22.71185353989332</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37476,16 +37476,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>292.6462316453562</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>320.0552895810019</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>88.29766032133843</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37713,7 +37713,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526633</v>
+        <v>200.0587396437669</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>539.4516590774601</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133861</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
-        <v>190.6760370094883</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38032,7 +38032,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
         <v>186.7126870110591</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="M45" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38187,16 +38187,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P46" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
